--- a/src/main/relationShip.xlsx
+++ b/src/main/relationShip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="DW层" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>目标表名</t>
     <rPh sb="0" eb="2">
@@ -186,31 +186,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DW_SAVING_CARD_INFO（t1)
-DW_CARD_INFO  (t2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>借记卡信息  (t1)
-借用卡信息  (t2)</t>
-    <rPh sb="0" eb="2">
-      <t>jie ji ka</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARD_ID  (t1,t2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARD_NM  (t1,t2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CU_ID    (t1,t2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BJ06TXSN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -319,10 +294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ACCT_ID  (t2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DIM_ORG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,10 +311,6 @@
   </si>
   <si>
     <t>TX_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTX_JNO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -677,6 +644,57 @@
     <rPh sb="0" eb="2">
       <t>jian l</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DW_SAVING_CARD_INFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">借记卡信息  </t>
+    <rPh sb="0" eb="2">
+      <t>jie ji ka</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTX_JNO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">借用卡信息 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DW_CARD_INFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCT_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -824,6 +842,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -831,15 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1156,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,441 +1224,441 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>100</v>
+      <c r="B2" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>35</v>
+      <c r="F2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
@@ -1649,218 +1667,234 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="5" t="s">
-        <v>67</v>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>119</v>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:A35"/>
-    <mergeCell ref="B2:B35"/>
+  <mergeCells count="13">
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="E2:E38"/>
+    <mergeCell ref="B2:B38"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="F31:F35"/>
     <mergeCell ref="G31:G35"/>
-    <mergeCell ref="E2:E35"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="G6:G23"/>
     <mergeCell ref="F6:F23"/>
+    <mergeCell ref="A2:A38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
